--- a/Soponyai Áron/tesztelés/TeszteljükLe.xlsx
+++ b/Soponyai Áron/tesztelés/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Suli!!!!!\KA_12D.github.io\Soponyai Áron\tesztelés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63708BC8-CC7E-41B4-88FF-A85F5F1F85B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128CFEA-E27D-477F-8F2C-7A464A782028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="278">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -689,12 +689,6 @@
     <t>info+23@cleancut.hu</t>
   </si>
   <si>
-    <t>info+21234657984654654654654654654654654654654654654654654654654654654654654654654666666@cleancut.hu</t>
-  </si>
-  <si>
-    <t>info+212346579846546546546546546546546546546546546546546546546546546546546546546546666669@cleancut.hu</t>
-  </si>
-  <si>
     <t>asdfasdfasdfélkjélaskdfhéalskdhfaélskdfhalskdfalskdhflashf%%%/=%=/=/%=/%asdfasdfasdlékjsfdélkh</t>
   </si>
   <si>
@@ -993,6 +987,12 @@
   <si>
     <t>képek\Képernyőkép 2023-09-20 102505.png</t>
   </si>
+  <si>
+    <t>info+23211111111111111111111111111111111111111111111111111111111@cleancut.hu</t>
+  </si>
+  <si>
+    <t>info+232111111111111111111111111111111111111111111111111111111111@cleancut.hu</t>
+  </si>
 </sst>
 </file>
 
@@ -1001,11 +1001,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0\ [$Ft]"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1110,8 +1118,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,6 +1205,12 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1263,17 +1284,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1282,70 +1303,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -2308,7 +2333,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H8" s="8">
         <v>3</v>
@@ -2550,7 +2575,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
@@ -2576,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H10" s="8">
         <v>2</v>
@@ -2602,7 +2627,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>36</v>
@@ -2628,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>40</v>
@@ -3660,19 +3685,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>239</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>241</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -3698,19 +3723,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>244</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>246</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -3736,19 +3761,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3774,19 +3799,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>256</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -3812,19 +3837,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="D5" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="E5" s="42" t="s">
         <v>259</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>261</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -3850,19 +3875,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>264</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>266</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -3888,19 +3913,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="D7" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>269</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>271</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -31847,8 +31872,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31929,7 +31954,7 @@
       <c r="F3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -31955,7 +31980,7 @@
       <c r="F4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -31981,7 +32006,7 @@
       <c r="F5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -32007,7 +32032,7 @@
       <c r="F6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -32033,7 +32058,7 @@
       <c r="F7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -32059,17 +32084,15 @@
       <c r="F8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>12</v>
+      <c r="G8" s="44" t="s">
+        <v>271</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="44" t="s">
-        <v>273</v>
-      </c>
+      <c r="G9" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -32079,8 +32102,7 @@
     <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://katonaszg-my.sharepoint.com/:v:/g/personal/aron_soponyai_katonaj-mkszig_hu/EXOOSQZN5dxCr39ULzZNpJ0BjXO667iJT0YKRgXAVg9onw?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0RpcmVjdCJ9fQ&amp;e=J7Lhr1" xr:uid="{1E595A03-FFFF-4800-9E49-4BA1ED27366F}"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://katonaszg-my.sharepoint.com/:v:/g/personal/aron_soponyai_katonaj-mkszig_hu/EXOOSQZN5dxCr39ULzZNpJ0BjXO667iJT0YKRgXAVg9onw?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0RpcmVjdCJ9fQ&amp;e=J7Lhr1" xr:uid="{7A3DC9B5-8ABD-4620-90A9-FBF2F1793730}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32093,7 +32115,9 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32103,7 +32127,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -32114,7 +32138,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
@@ -32123,7 +32147,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="19" t="s">
         <v>74</v>
       </c>
@@ -32132,7 +32156,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="19" t="s">
         <v>76</v>
       </c>
@@ -32141,7 +32165,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -32152,7 +32176,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="19" t="s">
         <v>81</v>
       </c>
@@ -32161,7 +32185,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="19" t="s">
         <v>83</v>
       </c>
@@ -32170,7 +32194,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -32181,7 +32205,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="19" t="s">
         <v>88</v>
       </c>
@@ -32190,7 +32214,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -32201,35 +32225,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
@@ -32238,7 +32262,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
@@ -32247,7 +32271,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
@@ -33184,7 +33208,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33227,11 +33253,11 @@
       <c r="D2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>204</v>
+      <c r="E2" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -33248,13 +33274,13 @@
         <v>177</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -33271,13 +33297,13 @@
         <v>177</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -33290,14 +33316,14 @@
       <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="50">
         <v>301234567</v>
       </c>
       <c r="E5" s="13">
         <v>909999999</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -33307,8 +33333,8 @@
       <c r="B6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>209</v>
+      <c r="C6" s="52" t="s">
+        <v>207</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>75</v>
@@ -33316,11 +33342,11 @@
       <c r="E6" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>210</v>
+      <c r="F6" s="53" t="s">
+        <v>208</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -33339,11 +33365,11 @@
       <c r="E7" s="13">
         <v>9985</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>212</v>
+      <c r="F7" s="53" t="s">
+        <v>210</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -33362,11 +33388,11 @@
       <c r="E8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>210</v>
+      <c r="F8" s="53" t="s">
+        <v>208</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -33377,7 +33403,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>197</v>
@@ -33385,11 +33411,11 @@
       <c r="E9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>210</v>
+      <c r="F9" s="53" t="s">
+        <v>208</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -33397,10 +33423,10 @@
         <v>162</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -33408,14 +33434,19 @@
         <v>169</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{84107905-7FD3-41C2-88AC-4FF47239A032}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{C5FAB6F3-1231-432D-AB41-AD7C5D6475C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -33436,27 +33467,27 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="39">
         <f>100000</f>
@@ -33473,10 +33504,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="39">
         <v>699999</v>
@@ -33492,10 +33523,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="39">
         <v>240000</v>
@@ -33510,10 +33541,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="39">
         <f>749500*1.27</f>
@@ -33532,10 +33563,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" s="39">
         <f>380000*1.27</f>
@@ -33551,10 +33582,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C7" s="39">
         <v>319000</v>
@@ -33569,10 +33600,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="39">
         <v>380000</v>
@@ -33587,10 +33618,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="39">
         <f>490000*1.27</f>
